--- a/src/test/java/Data/LastUserDataForSignUp.xlsx
+++ b/src/test/java/Data/LastUserDataForSignUp.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D382E-F9D1-4AC0-8210-831641378207}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{8F5B6978-2ACE-4D3B-889C-7B4DBFB67040}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="4008"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9241769A-4B95-4B05-AD94-54C92A421ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +587,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{422BE2AF-B086-453A-BA2B-3B7D4F8E803C}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{9DB4B896-E71E-4E47-ACB7-96B623D0FD8E}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{043721AD-E4A0-4A55-96AB-EAFF24198E60}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{F4F1FDE0-0522-48DC-8879-10F303B17F4B}"/>
+    <hyperlink ref="G1" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/src/test/java/Data/LastUserDataForSignUp.xlsx
+++ b/src/test/java/Data/LastUserDataForSignUp.xlsx
@@ -563,7 +563,7 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
